--- a/Dev/Files/Siebel Service/ITAF_RunManager_Service_MS_Patch.xlsx
+++ b/Dev/Files/Siebel Service/ITAF_RunManager_Service_MS_Patch.xlsx
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1118,7 +1118,7 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -1135,7 +1135,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>

--- a/Dev/Files/Siebel Service/ITAF_RunManager_Service_MS_Patch.xlsx
+++ b/Dev/Files/Siebel Service/ITAF_RunManager_Service_MS_Patch.xlsx
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1067,7 +1067,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -1084,7 +1084,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1101,7 +1101,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1135,7 +1135,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
